--- a/missingvalues.xlsx
+++ b/missingvalues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0599BD11-C8EB-4444-8D01-0D0B5BA0F9A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277CA751-42B6-4039-9D9F-78D53B53531B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{A09B3AF1-AAB5-4900-8493-E0EFCC88ACCF}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,16 +453,28 @@
       <c r="B4">
         <v>2.7231106068938901E-3</v>
       </c>
+      <c r="C4">
+        <v>9.4204470515251108E-3</v>
+      </c>
       <c r="D4">
         <v>2.7639900799840602E-3</v>
+      </c>
+      <c r="E4">
+        <v>7.3833335381746201E-3</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2.7051779907196699E-3</v>
       </c>
+      <c r="C5">
+        <v>9.0562188997864706E-3</v>
+      </c>
       <c r="D5">
         <v>2.9914854094386101E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.4181392267346301E-3</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -472,6 +484,9 @@
       <c r="D6">
         <v>2.8032353147864298E-3</v>
       </c>
+      <c r="E6">
+        <v>9.6673397347330995E-3</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -479,6 +494,9 @@
       </c>
       <c r="D7">
         <v>3.1760672573000102E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.4420059509575299E-2</v>
       </c>
     </row>
   </sheetData>
